--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ss2302/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868424E-9EB1-44CE-B803-849B90DA7DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A27FE-F671-5546-B729-82BA3ED1960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="29400" yWindow="220" windowWidth="27780" windowHeight="18900" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -42,43 +42,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6C3642A6-CAF9-4FCE-B8A9-BF189234C7A9}</author>
-    <author>tc={B18ED3C3-ECF9-4688-B092-09E30457636E}</author>
     <author>tc={C88A1431-9FD8-49FD-97E7-33919905FE9A}</author>
-    <author>tc={E2C51B00-CF6B-407C-901C-672BEDDCDC5D}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6C3642A6-CAF9-4FCE-B8A9-BF189234C7A9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Seen in Eos/2022-02-28. Should be rois.planes. (has nROIs rows)</t>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{B18ED3C3-ECF9-4688-B092-09E30457636E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Can't load with Matlab</t>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="2" shapeId="0" xr:uid="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     What are the units for x and y position, and for z position? Millimeter, pixel, piezo position? What is the reference (where is 0)?</t>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="3" shapeId="0" xr:uid="{E2C51B00-CF6B-407C-901C-672BEDDCDC5D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Change to "zProfiles"?
-Can't load in Matlab.</t>
       </text>
     </comment>
   </commentList>
@@ -239,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="274">
   <si>
     <t>File name</t>
   </si>
@@ -256,9 +228,6 @@
     <t>delta-F-over-F</t>
   </si>
   <si>
-    <t>nSamples, nROIs</t>
-  </si>
-  <si>
     <t>Pre-processed calcium traces of all ROIs (delta-F-over-F, neuropil corrected, z-stack corrected, etc.)</t>
   </si>
   <si>
@@ -280,18 +249,12 @@
     <t>Imaging plane of each ROI </t>
   </si>
   <si>
-    <t>ID of each ROI (match IDs returned by suite2p)</t>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
     <t>nROIs, 3</t>
   </si>
   <si>
-    <t>3D position of ROIs in imaging volume</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -1043,13 +1006,60 @@
   </si>
   <si>
     <t>circles.endTime</t>
+  </si>
+  <si>
+    <t>Dimensions swapped. Should be [numROIs x numZStackPlanes]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3D position of ROIs in imaging volume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(what are the units? See comment in this cell)</t>
+    </r>
+  </si>
+  <si>
+    <t>zstack.correlation</t>
+  </si>
+  <si>
+    <t>This is unrelated to the imaged planes. Dimensions do not match. Rename to zstack.correlations</t>
+  </si>
+  <si>
+    <t>nFrames, nROIs</t>
+  </si>
+  <si>
+    <t>nPlanes, nFrames</t>
+  </si>
+  <si>
+    <t>nROIs, nZStackPlanes</t>
+  </si>
+  <si>
+    <t>nZStackPlanes, nFrames</t>
+  </si>
+  <si>
+    <r>
+      <t>ID of each ROI (match IDs returned by suite2p)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>, currently saved as calcium.Ids</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,6 +1104,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1110,12 +1132,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1123,6 +1139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1156,9 +1178,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1167,11 +1189,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1192,12 +1211,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1523,18 +1551,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A3" dT="2023-11-03T17:40:16.26" personId="{DD2572A2-F949-408A-9E94-F1299C882509}" id="{6C3642A6-CAF9-4FCE-B8A9-BF189234C7A9}">
-    <text>Seen in Eos/2022-02-28. Should be rois.planes. (has nROIs rows)</text>
-  </threadedComment>
-  <threadedComment ref="A8" dT="2023-11-03T17:59:42.64" personId="{DD2572A2-F949-408A-9E94-F1299C882509}" id="{B18ED3C3-ECF9-4688-B092-09E30457636E}">
-    <text>Can't load with Matlab</text>
-  </threadedComment>
-  <threadedComment ref="D12" dT="2023-11-03T12:00:26.86" personId="{DD2572A2-F949-408A-9E94-F1299C882509}" id="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
+  <threadedComment ref="D11" dT="2023-11-03T12:00:26.86" personId="{DD2572A2-F949-408A-9E94-F1299C882509}" id="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
     <text>What are the units for x and y position, and for z position? Millimeter, pixel, piezo position? What is the reference (where is 0)?</text>
-  </threadedComment>
-  <threadedComment ref="A14" dT="2023-11-03T18:01:55.51" personId="{DD2572A2-F949-408A-9E94-F1299C882509}" id="{E2C51B00-CF6B-407C-901C-672BEDDCDC5D}">
-    <text>Change to "zProfiles"?
-Can't load in Matlab.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1615,189 +1633,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="D6" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1818,386 +1854,386 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2210,124 +2246,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBC7223-8FD1-49F7-AA31-6BD218EA8AEE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2344,518 +2380,518 @@
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="26.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="157.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="157.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="11">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="12">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>228</v>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="15">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2872,559 +2908,559 @@
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ss2302/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A27FE-F671-5546-B729-82BA3ED1960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484E6207-5AC9-4296-82DE-479D2F9EF244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="220" windowWidth="27780" windowHeight="18900" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="276">
   <si>
     <t>File name</t>
   </si>
@@ -288,9 +288,6 @@
     <t>planes.delay</t>
   </si>
   <si>
-    <t>planes.zcorrStack</t>
-  </si>
-  <si>
     <t>planes.zTrace</t>
   </si>
   <si>
@@ -1006,9 +1003,6 @@
   </si>
   <si>
     <t>circles.endTime</t>
-  </si>
-  <si>
-    <t>Dimensions swapped. Should be [numROIs x numZStackPlanes]</t>
   </si>
   <si>
     <r>
@@ -1027,9 +1021,6 @@
     <t>zstack.correlation</t>
   </si>
   <si>
-    <t>This is unrelated to the imaged planes. Dimensions do not match. Rename to zstack.correlations</t>
-  </si>
-  <si>
     <t>nFrames, nROIs</t>
   </si>
   <si>
@@ -1039,27 +1030,32 @@
     <t>nROIs, nZStackPlanes</t>
   </si>
   <si>
-    <t>nZStackPlanes, nFrames</t>
-  </si>
-  <si>
-    <r>
-      <t>ID of each ROI (match IDs returned by suite2p)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>, currently saved as calcium.Ids</t>
-    </r>
+    <t>plane number</t>
+  </si>
+  <si>
+    <t>The plane in the z-stack the each plane is one for each imaging frame</t>
+  </si>
+  <si>
+    <t>luminance</t>
+  </si>
+  <si>
+    <t>ID of each ROI (match IDs returned by suite2p)</t>
+  </si>
+  <si>
+    <t>The luminance of each ROI on each slice of the z-stack</t>
+  </si>
+  <si>
+    <t>nplanes,nZStackPlanes, nFrames</t>
+  </si>
+  <si>
+    <t>The correlation of each plane with the zstack plane in each frame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,8 +1112,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,12 +1141,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1220,11 +1216,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1631,23 +1629,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1669,13 +1667,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1683,17 +1681,17 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1707,27 +1705,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="D6" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="15" t="s">
+        <v>269</v>
+      </c>
       <c r="C7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1740,8 +1733,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1751,10 +1744,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1765,10 +1758,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1782,63 +1775,72 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="17"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="90">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" xr:uid="{9251FEBC-1780-407A-BF75-F4B5997F5A88}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{9251FEBC-1780-407A-BF75-F4B5997F5A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -1854,16 +1856,16 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1877,65 +1879,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="10" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1944,12 +1946,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -1958,12 +1960,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -1972,268 +1974,268 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="6" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="30">
+      <c r="A30" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2251,16 +2253,16 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2274,23 +2276,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2299,44 +2301,44 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2345,16 +2347,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -2363,7 +2365,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2376,20 +2378,20 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="26.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="157.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="157.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2403,495 +2405,495 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1"/>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="11">
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45">
       <c r="A32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="90">
+      <c r="A33" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="B33" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="13">
         <v>4</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="150">
       <c r="A37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2905,19 +2907,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2931,536 +2933,536 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="10" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="10" customFormat="1">
       <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1">
+      <c r="A6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" s="7" customFormat="1"/>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484E6207-5AC9-4296-82DE-479D2F9EF244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37815AA6-47DD-49E3-8F32-E42398A32615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -459,12 +459,6 @@
     <t>sampling rate of probe (not used in IBL)</t>
   </si>
   <si>
-    <t>running.speed</t>
-  </si>
-  <si>
-    <t>running.times</t>
-  </si>
-  <si>
     <t>eye.diameter</t>
   </si>
   <si>
@@ -1049,6 +1043,12 @@
   </si>
   <si>
     <t>The correlation of each plane with the zstack plane in each frame</t>
+  </si>
+  <si>
+    <t>wheel.velocity</t>
+  </si>
+  <si>
+    <t>wheel.times</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1176,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1214,12 +1214,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1631,9 +1625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1667,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1681,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -1710,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1734,7 +1728,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1744,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1758,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1777,30 +1771,30 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="A15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1881,63 +1875,63 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1946,12 +1940,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -1960,12 +1954,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -1974,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1">
@@ -2248,9 +2242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBC7223-8FD1-49F7-AA31-6BD218EA8AEE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2278,21 +2272,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2301,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2310,35 +2304,35 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2347,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2356,7 +2350,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -2365,7 +2359,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2407,47 +2401,47 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2457,61 +2451,61 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2521,107 +2515,107 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1"/>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" s="11">
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="7" customFormat="1"/>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -2629,271 +2623,271 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45">
       <c r="A32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="90">
       <c r="A33" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="13">
         <v>4</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="150">
       <c r="A37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
       <c r="A44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2935,30 +2929,30 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1">
@@ -2969,86 +2963,86 @@
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3059,410 +3053,410 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1"/>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37815AA6-47DD-49E3-8F32-E42398A32615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95AE1D2-1B79-43C8-9CCF-38CD052AFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -2242,9 +2242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBC7223-8FD1-49F7-AA31-6BD218EA8AEE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2371,9 +2371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2523,7 +2523,7 @@
       <c r="D11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       <c r="D12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>136</v>
       </c>
     </row>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95AE1D2-1B79-43C8-9CCF-38CD052AFE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FAC88-D3B0-4C4C-A3F6-D452F2B73678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    What are the units for x and y position, and for z position? Millimeter, pixel, piezo position? What is the reference (where is 0)?</t>
+    What are the units for x and y position, and for z position? Millimeter, pixel, piezo position? What is the reference (where is 0)?
+Reply:
+    Check this is correct!</t>
       </text>
     </comment>
   </commentList>
@@ -999,19 +1001,6 @@
     <t>circles.endTime</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3D position of ROIs in imaging volume </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>(what are the units? See comment in this cell)</t>
-    </r>
-  </si>
-  <si>
     <t>zstack.correlation</t>
   </si>
   <si>
@@ -1049,13 +1038,16 @@
   </si>
   <si>
     <t>wheel.times</t>
+  </si>
+  <si>
+    <t>3D position of ROIs in imaging volume. 1st: x position (horizontal) in pixels from left of FOV. 2nd: y position (vertical) in pixels from top of FOV. 3rd: depth in microns relative to imaging volume (unrelated to brain surface).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,11 +1091,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1176,7 +1163,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1213,11 +1200,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1241,7 +1231,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Liad Baruchin" id="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" userId="0f4ca98258d4c72d" providerId="Windows Live"/>
-  <person displayName="Sylvia Schroeder" id="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" userId="e3455f6c0eab7117" providerId="Windows Live"/>
+  <person displayName="Sylvia" id="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" userId="e3455f6c0eab7117" providerId="Windows Live"/>
   <person displayName="Sylvia Schroeder" id="{DD2572A2-F949-408A-9E94-F1299C882509}" userId="S::ss2302@sussex.ac.uk::906ec1a8-3d42-4d42-8463-a62b90497b18" providerId="AD"/>
 </personList>
 </file>
@@ -1546,6 +1536,9 @@
   <threadedComment ref="D11" dT="2023-11-03T12:00:26.86" personId="{DD2572A2-F949-408A-9E94-F1299C882509}" id="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
     <text>What are the units for x and y position, and for z position? Millimeter, pixel, piezo position? What is the reference (where is 0)?</text>
   </threadedComment>
+  <threadedComment ref="D11" dT="2024-01-19T10:09:40.47" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{0874CFAA-B9B3-43E6-B080-3CE87A2EB11C}" parentId="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
+    <text>Check this is correct!</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1625,12 +1618,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1639,7 +1632,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1653,22 +1646,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1677,16 +1670,16 @@
       <c r="C3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1695,26 +1688,26 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1723,11 +1716,11 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1737,12 +1730,12 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1751,12 +1744,12 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1769,48 +1762,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="14"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1824,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="90">
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1850,7 +1843,7 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1859,7 +1852,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1">
+    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -1887,7 +1880,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="10" customFormat="1">
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -1901,7 +1894,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1">
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
@@ -1915,7 +1908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1">
+    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
@@ -1929,7 +1922,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1">
+    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -1943,7 +1936,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1">
+    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>150</v>
       </c>
@@ -1957,7 +1950,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1">
+    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
@@ -1971,13 +1964,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="10" customFormat="1">
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2005,7 +1998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -2019,7 +2012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2033,7 +2026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
@@ -2047,10 +2040,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -2106,7 +2099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2120,7 +2113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -2134,7 +2127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -2148,7 +2141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2162,7 +2155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2176,7 +2169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2190,7 +2183,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2204,7 +2197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -2218,7 +2211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2244,10 +2237,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="A1:B33"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -2256,7 +2249,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2270,9 +2263,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
@@ -2284,9 +2277,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2298,11 +2291,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -2316,7 +2309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -2330,7 +2323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -2344,11 +2337,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -2371,249 +2364,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="157.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1"/>
-    <row r="14" spans="1:5">
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="11">
+      <c r="C17" s="11">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="7" customFormat="1"/>
-    <row r="19" spans="1:5">
+    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>222</v>
       </c>
@@ -2621,7 +2606,7 @@
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>256</v>
       </c>
@@ -2635,7 +2620,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>257</v>
       </c>
@@ -2649,7 +2634,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>225</v>
       </c>
@@ -2663,7 +2648,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>227</v>
       </c>
@@ -2677,7 +2662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>228</v>
       </c>
@@ -2691,7 +2676,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>229</v>
       </c>
@@ -2705,7 +2690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>230</v>
       </c>
@@ -2719,7 +2704,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>231</v>
       </c>
@@ -2733,7 +2718,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45">
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>232</v>
       </c>
@@ -2747,7 +2732,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="90">
+    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>235</v>
       </c>
@@ -2761,7 +2746,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>258</v>
       </c>
@@ -2778,7 +2763,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>259</v>
       </c>
@@ -2792,7 +2777,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="150">
+    <row r="37" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>236</v>
       </c>
@@ -2806,7 +2791,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>260</v>
       </c>
@@ -2820,7 +2805,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>261</v>
       </c>
@@ -2834,7 +2819,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>239</v>
       </c>
@@ -2848,7 +2833,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>241</v>
       </c>
@@ -2862,7 +2847,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
@@ -2876,7 +2861,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>244</v>
       </c>
@@ -2904,7 +2889,7 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -2913,7 +2898,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1">
+    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -2941,7 +2926,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="10" customFormat="1">
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
@@ -2955,13 +2940,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1">
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1">
+    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>170</v>
       </c>
@@ -2975,7 +2960,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1">
+    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>171</v>
       </c>
@@ -2989,7 +2974,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1">
+    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>172</v>
       </c>
@@ -3003,7 +2988,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1">
+    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>173</v>
       </c>
@@ -3017,7 +3002,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="10" customFormat="1">
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>174</v>
       </c>
@@ -3031,7 +3016,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="10" customFormat="1">
+    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -3045,13 +3030,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>176</v>
       </c>
@@ -3065,7 +3050,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
@@ -3077,7 +3062,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>178</v>
       </c>
@@ -3089,7 +3074,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>179</v>
       </c>
@@ -3101,7 +3086,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>180</v>
       </c>
@@ -3112,7 +3097,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>181</v>
       </c>
@@ -3124,7 +3109,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>182</v>
       </c>
@@ -3138,7 +3123,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>183</v>
       </c>
@@ -3149,7 +3134,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>184</v>
       </c>
@@ -3160,7 +3145,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>185</v>
       </c>
@@ -3171,7 +3156,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
@@ -3182,7 +3167,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
@@ -3193,7 +3178,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>188</v>
       </c>
@@ -3207,7 +3192,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>189</v>
       </c>
@@ -3218,7 +3203,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
@@ -3229,7 +3214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>191</v>
       </c>
@@ -3240,7 +3225,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>192</v>
       </c>
@@ -3251,7 +3236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
@@ -3262,8 +3247,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="7" customFormat="1"/>
-    <row r="33" spans="1:4">
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>167</v>
       </c>
@@ -3277,7 +3262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -3291,7 +3276,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>169</v>
       </c>
@@ -3305,7 +3290,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>198</v>
       </c>
@@ -3319,7 +3304,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>199</v>
       </c>
@@ -3333,7 +3318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>201</v>
       </c>
@@ -3347,7 +3332,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>200</v>
       </c>
@@ -3361,7 +3346,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>202</v>
       </c>
@@ -3375,7 +3360,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>194</v>
       </c>
@@ -3389,7 +3374,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>216</v>
       </c>
@@ -3403,7 +3388,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>252</v>
       </c>
@@ -3417,7 +3402,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.25" customHeight="1">
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -3431,7 +3416,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
@@ -3445,7 +3430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>197</v>
       </c>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FAC88-D3B0-4C4C-A3F6-D452F2B73678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D954D0-241B-4FD4-956C-FBB041528CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="247">
   <si>
     <t>File name</t>
   </si>
@@ -500,57 +500,15 @@
     <t>Time of licks</t>
   </si>
   <si>
-    <t>grating.intervals</t>
-  </si>
-  <si>
-    <t>grating.gratingID</t>
-  </si>
-  <si>
-    <t>gratingID.direction</t>
-  </si>
-  <si>
-    <t>gratingID.spatFreq</t>
-  </si>
-  <si>
-    <t>gratingID.tempFreq</t>
-  </si>
-  <si>
-    <t>gratingID.contrast</t>
-  </si>
-  <si>
-    <t>grating.gratingExp</t>
-  </si>
-  <si>
-    <t>gratingExp.description</t>
-  </si>
-  <si>
-    <t>nTrials, 2</t>
-  </si>
-  <si>
-    <t>start and end of trial</t>
-  </si>
-  <si>
     <t xml:space="preserve">nTrials </t>
   </si>
   <si>
-    <t>ID of grating in trial</t>
-  </si>
-  <si>
     <t>nTrials</t>
   </si>
   <si>
-    <t>ID of experiment</t>
-  </si>
-  <si>
     <t>degrees</t>
   </si>
   <si>
-    <t>nGratings</t>
-  </si>
-  <si>
-    <t>direction of movement of grating; 0 -&gt; moving rightward, &gt;0 -&gt; away from zero in anti-clockwise direction</t>
-  </si>
-  <si>
     <t>cycles/degree</t>
   </si>
   <si>
@@ -563,69 +521,15 @@
     <t>temporal frequency</t>
   </si>
   <si>
-    <t>percent</t>
-  </si>
-  <si>
     <t>contrast</t>
   </si>
   <si>
-    <t>nExperiments</t>
-  </si>
-  <si>
-    <t>json; text description of experiment</t>
-  </si>
-  <si>
-    <t>sparseNoise.times</t>
-  </si>
-  <si>
-    <t>sparseNoise.map</t>
-  </si>
-  <si>
-    <t>sparseNoiseArea.edges</t>
-  </si>
-  <si>
-    <t>time of each sparse noise frame</t>
-  </si>
-  <si>
     <t>nFrames</t>
   </si>
   <si>
-    <t>nFrames, nRows, nColumns</t>
-  </si>
-  <si>
-    <t>double [-1 1]</t>
-  </si>
-  <si>
-    <t>gray value of each pixel in each stimulus frame, -1 -&gt; black, +1 -&gt; white</t>
-  </si>
-  <si>
     <t>Left, right, bottom, top edge of each stimulus frame relative to visual field. 0 -&gt; horizon/midline</t>
   </si>
   <si>
-    <t>darkScreen.intervals</t>
-  </si>
-  <si>
-    <t>nIntervals, 2</t>
-  </si>
-  <si>
-    <t>start and end of recordings during darkness</t>
-  </si>
-  <si>
-    <t>grayScreen.intervals</t>
-  </si>
-  <si>
-    <t>start and end of recordings during gray screen presentation</t>
-  </si>
-  <si>
-    <t>gratingExp.intervals</t>
-  </si>
-  <si>
-    <t>nExperiments, 2</t>
-  </si>
-  <si>
-    <t>start and end of each experiment (recording time, which can be before first and after last stimulus)</t>
-  </si>
-  <si>
     <t>sync.times</t>
   </si>
   <si>
@@ -881,18 +785,12 @@
     <t>rois.zProfiles</t>
   </si>
   <si>
-    <t>Current naming</t>
-  </si>
-  <si>
     <t>start of trial</t>
   </si>
   <si>
     <t>end of trial</t>
   </si>
   <si>
-    <t>gratings.ori</t>
-  </si>
-  <si>
     <t xml:space="preserve">direction of movement </t>
   </si>
   <si>
@@ -905,12 +803,6 @@
     <t>gratings.contrast</t>
   </si>
   <si>
-    <t>sparse.st</t>
-  </si>
-  <si>
-    <t>sparse.et</t>
-  </si>
-  <si>
     <t>sparse.map</t>
   </si>
   <si>
@@ -920,12 +812,6 @@
     <t>value for each square 0 to 1 (0 black , 1 white)</t>
   </si>
   <si>
-    <t>sparseArea.edges</t>
-  </si>
-  <si>
-    <t>retinal.stim</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -980,21 +866,12 @@
     <t>a range of stimulus sizes that elicit at least half the maximum response. Rest in nan</t>
   </si>
   <si>
-    <t>fullField</t>
-  </si>
-  <si>
     <t>gratings.startTime</t>
   </si>
   <si>
     <t>gratings.endTime</t>
   </si>
   <si>
-    <t>retinal.startTime</t>
-  </si>
-  <si>
-    <t>retinal.endTime</t>
-  </si>
-  <si>
     <t>circles.startTime</t>
   </si>
   <si>
@@ -1040,7 +917,43 @@
     <t>wheel.times</t>
   </si>
   <si>
-    <t>3D position of ROIs in imaging volume. 1st: x position (horizontal) in pixels from left of FOV. 2nd: y position (vertical) in pixels from top of FOV. 3rd: depth in microns relative to imaging volume (unrelated to brain surface).</t>
+    <t>3D position of ROIs in imaging volume. 1st: x position (vertical) in pixels from left of FOV. 2nd: y position (horizontal) in pixels from top of FOV. 3rd: depth in microns relative to imaging volume (unrelated to brain surface).</t>
+  </si>
+  <si>
+    <t>gratings.direction</t>
+  </si>
+  <si>
+    <t>sparse.startTime</t>
+  </si>
+  <si>
+    <t>sparseExp.edges</t>
+  </si>
+  <si>
+    <t>gratingsExp.intervals</t>
+  </si>
+  <si>
+    <t>nSession,2</t>
+  </si>
+  <si>
+    <t>start and end time of each session</t>
+  </si>
+  <si>
+    <t>sparseExp.intervals</t>
+  </si>
+  <si>
+    <t>fullField.startTime</t>
+  </si>
+  <si>
+    <t>fullField.endTime</t>
+  </si>
+  <si>
+    <t>fullField.stim</t>
+  </si>
+  <si>
+    <t>fullFieldExp.intervals</t>
+  </si>
+  <si>
+    <t>circlesExp.intervals</t>
   </si>
 </sst>
 </file>
@@ -1106,18 +1019,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1161,7 +1068,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1169,11 +1076,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1194,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1209,6 +1112,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1618,9 +1525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="A30:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,54 +1539,54 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1688,7 +1595,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1696,18 +1603,18 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>266</v>
+      <c r="B7" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1716,7 +1623,7 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1730,12 +1637,12 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>269</v>
+      <c r="D10" s="14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1744,12 +1651,12 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>275</v>
+      <c r="D11" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1764,37 +1671,37 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>270</v>
+        <v>224</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="14"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1821,7 +1728,7 @@
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1852,140 +1759,140 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1994,12 +1901,12 @@
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2008,7 +1915,7 @@
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2022,12 +1929,12 @@
       <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2036,15 +1943,15 @@
       <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2053,7 +1960,7 @@
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2237,7 +2144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,23 +2156,23 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
@@ -2279,7 +2186,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2362,11 +2269,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,501 +2285,340 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>106</v>
+      <c r="D3" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>99</v>
+      <c r="A8" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>239</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="11">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>133</v>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>226</v>
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2884,9 +2630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,550 +2644,550 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>206</v>
+        <v>163</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D954D0-241B-4FD4-956C-FBB041528CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16A7DA-BCB7-475F-ACAC-88EE00E33721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -39,181 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={C88A1431-9FD8-49FD-97E7-33919905FE9A}</author>
-  </authors>
-  <commentList>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    What are the units for x and y position, and for z position? Millimeter, pixel, piezo position? What is the reference (where is 0)?
-Reply:
-    Check this is correct!</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={EAD461D1-502A-482E-B5AA-4D88F7F86347}</author>
-    <author>tc={F3CC5868-E23C-45D2-A6D3-FEAF44D81590}</author>
-    <author>tc={2D600B15-4AF2-498C-9E79-87519AB57F23}</author>
-    <author>tc={359B4ECC-1534-4AA8-A649-22736B3B2DBF}</author>
-    <author>tc={240BF4D0-C8BE-4866-871F-9F967130B8B7}</author>
-    <author>tc={21B88254-B6A2-49A8-8EA5-C53AA996787F}</author>
-    <author>tc={34B0304F-A040-4594-A596-4375E4028EB9}</author>
-    <author>tc={BC03141D-979C-4E89-8AD4-82AA771B9094}</author>
-    <author>tc={8A9B1EE8-96F0-4644-8B32-D9A471B3619C}</author>
-    <author>tc={B0EA968D-0F7D-49BD-AA61-531A7AC089EC}</author>
-    <author>tc={BFB11941-4183-4706-8E48-0E98D7879634}</author>
-    <author>tc={6BA2E1AB-2059-4334-A2C3-39CA49050843}</author>
-    <author>tc={4E79B79D-607E-436C-A727-CE6D5F00E606}</author>
-    <author>tc={7227379D-DCDF-42AD-8CA1-53DF00F3C290}</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{EAD461D1-502A-482E-B5AA-4D88F7F86347}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is it orientation or direction or do we need one for each?
-Reply:
-    It is both</t>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="1" shapeId="0" xr:uid="{F3CC5868-E23C-45D2-A6D3-FEAF44D81590}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    List parameters</t>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="2" shapeId="0" xr:uid="{2D600B15-4AF2-498C-9E79-87519AB57F23}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    What is the order of entries in 3rd dimension (condition)?</t>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="3" shapeId="0" xr:uid="{359B4ECC-1534-4AA8-A649-22736B3B2DBF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is it orientation or direction or do we need one for each?
-Reply:
-    Not sure I understand in this context</t>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="4" shapeId="0" xr:uid="{240BF4D0-C8BE-4866-871F-9F967130B8B7}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    List parameters
-</t>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="5" shapeId="0" xr:uid="{21B88254-B6A2-49A8-8EA5-C53AA996787F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is it orientation or direction or do we need one for each?</t>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="6" shapeId="0" xr:uid="{34B0304F-A040-4594-A596-4375E4028EB9}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    List parameters
-</t>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="7" shapeId="0" xr:uid="{BC03141D-979C-4E89-8AD4-82AA771B9094}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is it orientation or direction or do we need one for each?
-Reply:
-    Not sure I under what it means in this context</t>
-      </text>
-    </comment>
-    <comment ref="D26" authorId="8" shapeId="0" xr:uid="{8A9B1EE8-96F0-4644-8B32-D9A471B3619C}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    List parameters
-</t>
-      </text>
-    </comment>
-    <comment ref="D37" authorId="9" shapeId="0" xr:uid="{B0EA968D-0F7D-49BD-AA61-531A7AC089EC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Should we also save the RF map?
-List parameters
-Reply:
-    We discussed that. I am still not sure. It does save time later. But it is a matrix times 2 and times circle sizes if you want to save for each size</t>
-      </text>
-    </comment>
-    <comment ref="D40" authorId="10" shapeId="0" xr:uid="{BFB11941-4183-4706-8E48-0E98D7879634}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is this to explain RF map or single trial responses?
-Reply:
-    RF map</t>
-      </text>
-    </comment>
-    <comment ref="D41" authorId="11" shapeId="0" xr:uid="{6BA2E1AB-2059-4334-A2C3-39CA49050843}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is this to explain RF map or single trial responses?
-Reply:
-    RF map</t>
-      </text>
-    </comment>
-    <comment ref="D43" authorId="12" shapeId="0" xr:uid="{4E79B79D-607E-436C-A727-CE6D5F00E606}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    List parameters</t>
-      </text>
-    </comment>
-    <comment ref="D46" authorId="13" shapeId="0" xr:uid="{7227379D-DCDF-42AD-8CA1-53DF00F3C290}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is the width symmetric around the preferred size? If not, maybe better to save the range (min to max circle size eliciting at least half of the max response)
-Reply:
-    Also added range</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="245">
   <si>
     <t>File name</t>
   </si>
@@ -239,12 +66,6 @@
     <t>nSamples</t>
   </si>
   <si>
-    <t>Times of calcium traces. NOTE: times are for 1st plane, add 2pPlanes.delay for ROIs belonging to other imaging planes (specified in 2pRois.2pPlanes)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>nROIs</t>
   </si>
   <si>
@@ -734,9 +555,6 @@
     <t>Time of maximum response after stimulus onset for black (1) and white (2) circles</t>
   </si>
   <si>
-    <t>p-value for test whether neuron responds to black (1) and white (2) cirlces</t>
-  </si>
-  <si>
     <t>visual degrees</t>
   </si>
   <si>
@@ -773,15 +591,6 @@
     <t>Preferred size of black (1) and white (2) cirlces (argmax of Gamma)</t>
   </si>
   <si>
-    <t>Half width at half height of gamma</t>
-  </si>
-  <si>
-    <t>Explained variance of constant value for black (1) and white (2) cirlces</t>
-  </si>
-  <si>
-    <t>Explained variance of Gamma function for black (1) and white (2) cirlces</t>
-  </si>
-  <si>
     <t>rois.zProfiles</t>
   </si>
   <si>
@@ -842,30 +651,12 @@
     <t>1 if circle is white, 0 if black</t>
   </si>
   <si>
-    <t>Fitted parameters for orientation tuning curve during not running (1) or  running (2)</t>
-  </si>
-  <si>
-    <t>Fitted parameters for temporal frequency tuning curve:  offset, amplitude, preferred frequency, sigma</t>
-  </si>
-  <si>
-    <t>Fitted parameters for spatial frequency tuning curve:  offset, amplitude, preferred frequency, sigma</t>
-  </si>
-  <si>
-    <t>Fitted parameters for orientation tuning curve: offset, amplitude , Direction index, preferred oreintation, sigma</t>
-  </si>
-  <si>
     <t>Fitted parameters for contrast tuning curve: offset, gain, c50, n</t>
   </si>
   <si>
     <t>circlesSizeTuning.range</t>
   </si>
   <si>
-    <t>nUnits, 100,2</t>
-  </si>
-  <si>
-    <t>a range of stimulus sizes that elicit at least half the maximum response. Rest in nan</t>
-  </si>
-  <si>
     <t>gratings.startTime</t>
   </si>
   <si>
@@ -890,12 +681,6 @@
     <t>nROIs, nZStackPlanes</t>
   </si>
   <si>
-    <t>plane number</t>
-  </si>
-  <si>
-    <t>The plane in the z-stack the each plane is one for each imaging frame</t>
-  </si>
-  <si>
     <t>luminance</t>
   </si>
   <si>
@@ -905,21 +690,12 @@
     <t>The luminance of each ROI on each slice of the z-stack</t>
   </si>
   <si>
-    <t>nplanes,nZStackPlanes, nFrames</t>
-  </si>
-  <si>
-    <t>The correlation of each plane with the zstack plane in each frame</t>
-  </si>
-  <si>
     <t>wheel.velocity</t>
   </si>
   <si>
     <t>wheel.times</t>
   </si>
   <si>
-    <t>3D position of ROIs in imaging volume. 1st: x position (vertical) in pixels from left of FOV. 2nd: y position (horizontal) in pixels from top of FOV. 3rd: depth in microns relative to imaging volume (unrelated to brain surface).</t>
-  </si>
-  <si>
     <t>gratings.direction</t>
   </si>
   <si>
@@ -954,6 +730,51 @@
   </si>
   <si>
     <t>circlesExp.intervals</t>
+  </si>
+  <si>
+    <t>3D position of ROIs in imaging volume. 1st: y position (vertical) in pixels from left of FOV. 2nd: x position (horizontal) in pixels from top of FOV. 3rd: depth in microns relative to imaging volume (unrelated to brain surface).</t>
+  </si>
+  <si>
+    <t>Times of calcium traces. NOTE: times are for 1st plane, add planes.delay for ROIs belonging to other imaging planes (specified in rois.planes)</t>
+  </si>
+  <si>
+    <t>Best matching z-stack-plane for each frame in each imaged plane. "Frame" refers to one cycle through all imaging planes, i.e., frames of each imaged planes are counted independently (0, 1, 2, 3, …). Only for recordings where each frame is matched to a plane of a z-stack collected in addition to the experimental data.</t>
+  </si>
+  <si>
+    <t>The correlation of each frame in each imaged plane with each z-stack-plane</t>
+  </si>
+  <si>
+    <t>nPlanes, nZStackPlanes, nFrames</t>
+  </si>
+  <si>
+    <t>Fitted parameters for direction tuning curve: offset, amplitude , direction index, preferred direction, sigma</t>
+  </si>
+  <si>
+    <t>Fitted parameters for direction tuning curve during not running (1) or  running (2)</t>
+  </si>
+  <si>
+    <t>Fitted parameters for temporal frequency tuning curve: offset, amplitude, preferred temporal frequency, sigma</t>
+  </si>
+  <si>
+    <t>Fitted parameters for spatial frequency tuning curve: offset, amplitude, preferred spatial frequency, sigma</t>
+  </si>
+  <si>
+    <t>p-value for test whether neuron responds to black (1) and white (2) circles</t>
+  </si>
+  <si>
+    <t>Half width at half height of gamma in response to black (1) and white (2) circles.</t>
+  </si>
+  <si>
+    <t>Explained variance of constant value for size tuning curve in response to black (1) and white (2) cirlces.</t>
+  </si>
+  <si>
+    <t>Explained variance of Gamma function for size tuning curve in response to black (1) and white (2) cirlces.</t>
+  </si>
+  <si>
+    <t>Circles sizes (1: smaller, 2: larger; 2nd dimension) where half height of Gamma function lies for tuning to black (1) and white (2) circles (3rd dimension).</t>
+  </si>
+  <si>
+    <t>nUnits, 2, 2</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +856,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1070,7 +897,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1097,12 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1112,10 +933,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1136,11 +968,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Liad Baruchin" id="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" userId="0f4ca98258d4c72d" providerId="Windows Live"/>
-  <person displayName="Sylvia" id="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" userId="e3455f6c0eab7117" providerId="Windows Live"/>
-  <person displayName="Sylvia Schroeder" id="{DD2572A2-F949-408A-9E94-F1299C882509}" userId="S::ss2302@sussex.ac.uk::906ec1a8-3d42-4d42-8463-a62b90497b18" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1438,96 +1266,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D11" dT="2023-11-03T12:00:26.86" personId="{DD2572A2-F949-408A-9E94-F1299C882509}" id="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
-    <text>What are the units for x and y position, and for z position? Millimeter, pixel, piezo position? What is the reference (where is 0)?</text>
-  </threadedComment>
-  <threadedComment ref="D11" dT="2024-01-19T10:09:40.47" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{0874CFAA-B9B3-43E6-B080-3CE87A2EB11C}" parentId="{C88A1431-9FD8-49FD-97E7-33919905FE9A}">
-    <text>Check this is correct!</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A5" dT="2023-11-24T17:34:57.30" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{EAD461D1-502A-482E-B5AA-4D88F7F86347}">
-    <text>Is it orientation or direction or do we need one for each?</text>
-  </threadedComment>
-  <threadedComment ref="A5" dT="2023-12-07T09:53:12.44" personId="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" id="{40F08DEF-0E80-49E6-9594-243D99587E6C}" parentId="{EAD461D1-502A-482E-B5AA-4D88F7F86347}">
-    <text>It is both</text>
-  </threadedComment>
-  <threadedComment ref="D5" dT="2023-11-24T18:00:43.77" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{F3CC5868-E23C-45D2-A6D3-FEAF44D81590}">
-    <text>List parameters</text>
-  </threadedComment>
-  <threadedComment ref="D6" dT="2023-11-24T17:39:00.27" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{2D600B15-4AF2-498C-9E79-87519AB57F23}">
-    <text>What is the order of entries in 3rd dimension (condition)?</text>
-  </threadedComment>
-  <threadedComment ref="A12" dT="2023-11-24T17:34:57.30" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{359B4ECC-1534-4AA8-A649-22736B3B2DBF}">
-    <text>Is it orientation or direction or do we need one for each?</text>
-  </threadedComment>
-  <threadedComment ref="A12" dT="2023-12-07T10:01:59.82" personId="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" id="{D3407A65-A5A8-4751-A982-DC499C7A05CA}" parentId="{359B4ECC-1534-4AA8-A649-22736B3B2DBF}">
-    <text>Not sure I understand in this context</text>
-  </threadedComment>
-  <threadedComment ref="D12" dT="2023-11-24T18:00:48.02" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{240BF4D0-C8BE-4866-871F-9F967130B8B7}">
-    <text xml:space="preserve">List parameters
-</text>
-  </threadedComment>
-  <threadedComment ref="A19" dT="2023-11-24T17:34:57.30" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{21B88254-B6A2-49A8-8EA5-C53AA996787F}">
-    <text>Is it orientation or direction or do we need one for each?</text>
-  </threadedComment>
-  <threadedComment ref="D19" dT="2023-11-24T18:00:51.65" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{34B0304F-A040-4594-A596-4375E4028EB9}">
-    <text xml:space="preserve">List parameters
-</text>
-  </threadedComment>
-  <threadedComment ref="A26" dT="2023-11-24T17:34:57.30" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{BC03141D-979C-4E89-8AD4-82AA771B9094}">
-    <text>Is it orientation or direction or do we need one for each?</text>
-  </threadedComment>
-  <threadedComment ref="A26" dT="2023-12-07T10:02:14.22" personId="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" id="{6ED7A23F-C4A8-4C2F-86AA-5BCED04107AF}" parentId="{BC03141D-979C-4E89-8AD4-82AA771B9094}">
-    <text>Not sure I under what it means in this context</text>
-  </threadedComment>
-  <threadedComment ref="D26" dT="2023-11-24T18:00:55.01" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{8A9B1EE8-96F0-4644-8B32-D9A471B3619C}">
-    <text xml:space="preserve">List parameters
-</text>
-  </threadedComment>
-  <threadedComment ref="D37" dT="2023-11-24T18:03:05.32" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{B0EA968D-0F7D-49BD-AA61-531A7AC089EC}">
-    <text>Should we also save the RF map?
-List parameters</text>
-  </threadedComment>
-  <threadedComment ref="D37" dT="2023-12-07T10:16:52.22" personId="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" id="{E5201E0B-7CF8-4DC3-A412-11125024C487}" parentId="{B0EA968D-0F7D-49BD-AA61-531A7AC089EC}">
-    <text>We discussed that. I am still not sure. It does save time later. But it is a matrix times 2 and times circle sizes if you want to save for each size</text>
-  </threadedComment>
-  <threadedComment ref="D40" dT="2023-11-24T18:05:10.46" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{BFB11941-4183-4706-8E48-0E98D7879634}">
-    <text>Is this to explain RF map or single trial responses?</text>
-  </threadedComment>
-  <threadedComment ref="D40" dT="2023-12-07T10:17:04.95" personId="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" id="{0A6CC64D-815A-44A5-BA33-5C95EBB32F27}" parentId="{BFB11941-4183-4706-8E48-0E98D7879634}">
-    <text>RF map</text>
-  </threadedComment>
-  <threadedComment ref="D41" dT="2023-11-24T18:05:10.46" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{6BA2E1AB-2059-4334-A2C3-39CA49050843}">
-    <text>Is this to explain RF map or single trial responses?</text>
-  </threadedComment>
-  <threadedComment ref="D41" dT="2023-12-07T10:17:13.67" personId="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" id="{A6C79A34-311E-4943-A29B-E32FB6DFB32D}" parentId="{6BA2E1AB-2059-4334-A2C3-39CA49050843}">
-    <text>RF map</text>
-  </threadedComment>
-  <threadedComment ref="D43" dT="2023-11-24T18:03:05.32" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{4E79B79D-607E-436C-A727-CE6D5F00E606}">
-    <text>List parameters</text>
-  </threadedComment>
-  <threadedComment ref="D46" dT="2023-11-24T18:12:03.68" personId="{0ADF8406-BF5E-4CED-BB87-C903C02D50E7}" id="{7227379D-DCDF-42AD-8CA1-53DF00F3C290}">
-    <text>Is the width symmetric around the preferred size? If not, maybe better to save the range (min to max circle size eliciting at least half of the max response)</text>
-  </threadedComment>
-  <threadedComment ref="D46" dT="2023-12-07T10:26:35.97" personId="{A03BC4B0-5E5C-4E6D-9747-ACD0D6A588F9}" id="{00B0129E-D4B8-43CB-995A-229825E46AF9}" parentId="{7227379D-DCDF-42AD-8CA1-53DF00F3C290}">
-    <text>Also added range</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="A30:B43"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,182 +1299,182 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>19</v>
+      <c r="A3" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
+        <v>101</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>24</v>
+      <c r="A5" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>225</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>21</v>
+      <c r="A9" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="12"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1482,6 @@
     <hyperlink ref="B24" r:id="rId1" xr:uid="{9251FEBC-1780-407A-BF75-F4B5997F5A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1746,7 +1490,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -1775,100 +1519,100 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1879,72 +1623,72 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,184 +1696,184 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +1888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="A1:D41"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,21 +1916,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2195,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,35 +1948,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2241,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,7 +1994,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -2259,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,324 +2045,324 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>240</v>
+      <c r="C8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D13" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>240</v>
+      <c r="C14" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>190</v>
+      <c r="C21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>240</v>
+      <c r="C27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2627,12 +2371,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,30 +2404,30 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2694,86 +2438,86 @@
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>209</v>
+        <v>126</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,415 +2528,415 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>174</v>
+        <v>204</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>174</v>
+        <v>161</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16A7DA-BCB7-475F-ACAC-88EE00E33721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97CA96D-A8CD-4153-AA9C-BADB711B8038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="248">
   <si>
     <t>File name</t>
   </si>
@@ -775,6 +775,15 @@
   </si>
   <si>
     <t>nUnits, 2, 2</t>
+  </si>
+  <si>
+    <t>eyeVideo.mmPerPixel</t>
+  </si>
+  <si>
+    <t>mm/pixel</t>
+  </si>
+  <si>
+    <t>Sixe of pxiels in mm</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -936,15 +945,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -965,10 +965,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1271,7 +1267,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1354,7 +1350,7 @@
       <c r="C7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -1490,7 +1486,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -1884,11 +1880,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBC7223-8FD1-49F7-AA31-6BD218EA8AEE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,20 +1985,34 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2017,7 +2027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:D27"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,21 +2193,21 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>224</v>
       </c>
@@ -2267,17 +2277,17 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2374,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
@@ -2460,7 +2470,7 @@
       <c r="C6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2738,7 +2748,6 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>133</v>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97CA96D-A8CD-4153-AA9C-BADB711B8038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD68674-64EC-466B-9885-3F2D990D8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="6240" yWindow="810" windowWidth="18615" windowHeight="12825" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="263">
   <si>
     <t>File name</t>
   </si>
@@ -784,6 +784,51 @@
   </si>
   <si>
     <t>Sixe of pxiels in mm</t>
+  </si>
+  <si>
+    <t>gratingsStep.startTime</t>
+  </si>
+  <si>
+    <t>gratingsStep.endTime</t>
+  </si>
+  <si>
+    <t>gratingsStep.direction</t>
+  </si>
+  <si>
+    <t>gratingsStep.spatialF</t>
+  </si>
+  <si>
+    <t>gratingsStep.contrast</t>
+  </si>
+  <si>
+    <t>gratingsStepExp.intervals</t>
+  </si>
+  <si>
+    <t>gratingsStep.startTemporalF</t>
+  </si>
+  <si>
+    <t>gratingsStep.endTemporalF</t>
+  </si>
+  <si>
+    <t>initial temporal frequency</t>
+  </si>
+  <si>
+    <t>final temporal frequency</t>
+  </si>
+  <si>
+    <t>flicker.startTime</t>
+  </si>
+  <si>
+    <t>flicker.endTime</t>
+  </si>
+  <si>
+    <t>flicker.contrast</t>
+  </si>
+  <si>
+    <t>block contrast (Low or High)</t>
+  </si>
+  <si>
+    <t>flickerExp.intervals</t>
   </si>
 </sst>
 </file>
@@ -968,9 +1013,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1008,7 +1053,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1114,7 +1159,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1256,7 +1301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1882,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBC7223-8FD1-49F7-AA31-6BD218EA8AEE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
@@ -2023,16 +2068,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="110.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="157.42578125" style="1" customWidth="1"/>
@@ -2372,6 +2417,174 @@
         <v>222</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>223</v>
       </c>
     </row>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD68674-64EC-466B-9885-3F2D990D8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7778C-4101-4523-8E90-3D40CEE78C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="810" windowWidth="18615" windowHeight="12825" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="277">
   <si>
     <t>File name</t>
   </si>
@@ -829,6 +829,48 @@
   </si>
   <si>
     <t>flickerExp.intervals</t>
+  </si>
+  <si>
+    <t>circlesResp.map</t>
+  </si>
+  <si>
+    <t>nUnits, t,y,x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average response in each square </t>
+  </si>
+  <si>
+    <t>nUnits,diameters,y,x</t>
+  </si>
+  <si>
+    <t>The maps divided by the size of the circles</t>
+  </si>
+  <si>
+    <t>The maps divided by the size of the circles, the average map was taken considerin not only the centres, but also any circle part touching each point</t>
+  </si>
+  <si>
+    <t>circlesRF.maps</t>
+  </si>
+  <si>
+    <t>circlesRF.mapsDiameters</t>
+  </si>
+  <si>
+    <t>circleAnalysis.resp.timestamps</t>
+  </si>
+  <si>
+    <t>1,t</t>
+  </si>
+  <si>
+    <t>the time stamps for circleResp.map</t>
+  </si>
+  <si>
+    <t>1,nDiameters</t>
+  </si>
+  <si>
+    <t>the diameters used in fitting</t>
+  </si>
+  <si>
+    <t>circleAnalysis.size.diameters</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1354,8 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,9 +2112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,11 +2637,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,51 +3045,37 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>174</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>121</v>
@@ -3056,12 +3084,12 @@
         <v>169</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>121</v>
@@ -3070,91 +3098,175 @@
         <v>169</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7778C-4101-4523-8E90-3D40CEE78C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3288D4-24C5-4601-81DD-70985CD3BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="293">
   <si>
     <t>File name</t>
   </si>
@@ -288,9 +288,6 @@
     <t>eye.xyPos</t>
   </si>
   <si>
-    <t>eye.times</t>
-  </si>
-  <si>
     <t>cm/s</t>
   </si>
   <si>
@@ -312,15 +309,9 @@
     <t>Center of pupil. Horizontal (1st column) and vertical (2nd column) position in pixels relative to top left corner of video.</t>
   </si>
   <si>
-    <t>licks.times</t>
-  </si>
-  <si>
     <t>Time of eye samples</t>
   </si>
   <si>
-    <t>Time of licks</t>
-  </si>
-  <si>
     <t xml:space="preserve">nTrials </t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>nFrames</t>
   </si>
   <si>
-    <t>Left, right, bottom, top edge of each stimulus frame relative to visual field. 0 -&gt; horizon/midline</t>
-  </si>
-  <si>
     <t>sync.times</t>
   </si>
   <si>
@@ -693,9 +681,6 @@
     <t>wheel.velocity</t>
   </si>
   <si>
-    <t>wheel.times</t>
-  </si>
-  <si>
     <t>gratings.direction</t>
   </si>
   <si>
@@ -871,6 +856,69 @@
   </si>
   <si>
     <t>circleAnalysis.size.diameters</t>
+  </si>
+  <si>
+    <t>wheel.timestamps</t>
+  </si>
+  <si>
+    <t>body.timestamps</t>
+  </si>
+  <si>
+    <t>eye.timestamps</t>
+  </si>
+  <si>
+    <t>Time of bdy camera samples</t>
+  </si>
+  <si>
+    <t>circles.duration</t>
+  </si>
+  <si>
+    <t>the duration of the circle presentation</t>
+  </si>
+  <si>
+    <t>gratings.reward</t>
+  </si>
+  <si>
+    <t>whether of not the grating was rewarded</t>
+  </si>
+  <si>
+    <t>gratingsExp.description</t>
+  </si>
+  <si>
+    <t>nSession,1</t>
+  </si>
+  <si>
+    <t>the description of the grating session (grating - for normal presentation, or oddball for oddball sessions)</t>
+  </si>
+  <si>
+    <t>planes.zcorrelation</t>
+  </si>
+  <si>
+    <t>nPlanes, depth,nFrames</t>
+  </si>
+  <si>
+    <t>the correlation of each plane with each of the possible depths from the z-stack at each frame</t>
+  </si>
+  <si>
+    <t>spout.timestamps</t>
+  </si>
+  <si>
+    <t>Times of lick measure spout</t>
+  </si>
+  <si>
+    <t>spout.licks</t>
+  </si>
+  <si>
+    <t>the voltage of the spout at each time point</t>
+  </si>
+  <si>
+    <t>rois.isZCorrected</t>
+  </si>
+  <si>
+    <t>Whether or not the roi was z-corrected or not</t>
+  </si>
+  <si>
+    <t>number of grids from top to bottom, number of grids from left to right, and bottom, top , left, right,edge of each stimulus frame relative to visual field. 0 -&gt; horizon/midline</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1041,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1033,6 +1081,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -1403,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,6 +1478,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
@@ -1435,10 +1500,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,7 +1531,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1480,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,71 +1563,85 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>183</v>
+      <c r="A13" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" xr:uid="{9251FEBC-1780-407A-BF75-F4B5997F5A88}"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{9251FEBC-1780-407A-BF75-F4B5997F5A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1602,63 +1681,63 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -1667,12 +1746,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1681,12 +1760,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1695,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1967,11 +2046,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBC7223-8FD1-49F7-AA31-6BD218EA8AEE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,21 +2078,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2022,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,13 +2113,13 @@
         <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,18 +2127,18 @@
         <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2068,21 +2147,21 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2091,7 +2170,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -2100,7 +2179,35 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2110,11 +2217,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,492 +2249,540 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>184</v>
+      <c r="C10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="9">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="B21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>196</v>
+      <c r="C22" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>223</v>
+      <c r="A27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>249</v>
+      <c r="A30" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>256</v>
+      <c r="A32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>257</v>
+        <v>90</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>184</v>
+        <v>90</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>90</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2639,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -2669,30 +2824,30 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2703,86 +2858,86 @@
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,480 +2948,480 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3288D4-24C5-4601-81DD-70985CD3BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6521C834-8108-40B2-892C-ED2AAEED59E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1081,9 +1081,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2220,8 +2217,8 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,12 +2369,6 @@
       <c r="D10" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6521C834-8108-40B2-892C-ED2AAEED59E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB6C712-EE68-45C2-AF3B-FCDDFA4A13CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="303">
   <si>
     <t>File name</t>
   </si>
@@ -919,6 +919,36 @@
   </si>
   <si>
     <t>number of grids from top to bottom, number of grids from left to right, and bottom, top , left, right,edge of each stimulus frame relative to visual field. 0 -&gt; horizon/midline</t>
+  </si>
+  <si>
+    <t>natual.startTime.npy</t>
+  </si>
+  <si>
+    <t>natural.endTime.npy</t>
+  </si>
+  <si>
+    <t>natural.fileIndex</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>index of file (should the be matched to the list of files in the proper relate file directory for that experiments</t>
+  </si>
+  <si>
+    <t>naturalExp.intervals</t>
+  </si>
+  <si>
+    <t>naturalExp.imgList</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>nSession</t>
+  </si>
+  <si>
+    <t>a dictionary that containts the list of image files used in the experiment, to be matched by their index. E.g. to access that file list of the first experiment one needs to go to imgList[0][0]['imgList']</t>
   </si>
 </sst>
 </file>
@@ -2214,11 +2244,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,6 +2803,76 @@
         <v>217</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>218</v>
       </c>
     </row>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB6C712-EE68-45C2-AF3B-FCDDFA4A13CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBB1A7A-B5F7-4438-9F14-9278AECFDC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="315">
   <si>
     <t>File name</t>
   </si>
@@ -949,13 +949,49 @@
   </si>
   <si>
     <t>a dictionary that containts the list of image files used in the experiment, to be matched by their index. E.g. to access that file list of the first experiment one needs to go to imgList[0][0]['imgList']</t>
+  </si>
+  <si>
+    <t>mean_baseline_{param}_{state}</t>
+  </si>
+  <si>
+    <t>The mean baseline values (0.5s interval before stimulus onset) for the specified parameter (Ori, SF,TF) or for all the parameters combined(All) separated by state (quiet,active) or pooled across states</t>
+  </si>
+  <si>
+    <t>sd_baseline_{param}_{state}</t>
+  </si>
+  <si>
+    <t>The standard deviation baseline values (0.5s interval before stimulus onset) for the specified parameter (Ori, SF,TF) or for all the parameters combined(All) separated by state (quiet,active) or pooled across states</t>
+  </si>
+  <si>
+    <t>mean_resp_{param}_{state}</t>
+  </si>
+  <si>
+    <t>sd_resp_{param}_{state}</t>
+  </si>
+  <si>
+    <t>The mean response values (duration of stimulus) for the specified parameter (Ori, SF,TF) or for all the parameters combined(All) separated by state (quiet,active) or pooled across states</t>
+  </si>
+  <si>
+    <t>The standard deviation response values (duration of stimulus) for the specified parameter (Ori, SF,TF) or for all the parameters combined(All) separated by state (quiet,active) or pooled across states</t>
+  </si>
+  <si>
+    <t>OSI_Ori_{state}</t>
+  </si>
+  <si>
+    <t>The orientation selectivity index  separated by state (quiet,active) or pooled across states</t>
+  </si>
+  <si>
+    <t>DSI_Ori_{state}</t>
+  </si>
+  <si>
+    <t>The direction selectivity index  separated by state (quiet,active) or pooled across states</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,13 +1032,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1071,7 +1100,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1101,16 +1130,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1429,11 +1455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,21 +1486,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1483,16 +1509,16 @@
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1501,7 +1527,7 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1523,7 +1549,7 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1534,7 +1560,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1543,7 +1569,7 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1557,12 +1583,12 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1571,12 +1597,12 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1590,7 +1616,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>290</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1613,7 +1639,7 @@
       <c r="C14" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1627,50 +1653,135 @@
       <c r="C16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>308</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{9251FEBC-1780-407A-BF75-F4B5997F5A88}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{9251FEBC-1780-407A-BF75-F4B5997F5A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2246,9 +2357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F47D32-613F-478F-B67D-600975316B20}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,7 +3082,7 @@
       <c r="C6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>231</v>
       </c>
     </row>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBB1A7A-B5F7-4438-9F14-9278AECFDC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA141186-DC26-4564-B86A-41053D9688FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="348">
   <si>
     <t>File name</t>
   </si>
@@ -985,6 +985,105 @@
   </si>
   <si>
     <t>The direction selectivity index  separated by state (quiet,active) or pooled across states</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.paramsAdapt</t>
+  </si>
+  <si>
+    <t>nUnits, nStates, nParams</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): 0: Quiet, 1: Active, 2: Pooled; nParams (4): parameters for the adaptation model: tau, offset, y_start_fit, start_time_for_fit</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.paramsSens</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): 0: Quiet, 1: Active, 2: Pooled; nParams (4): parameters for the sensitisation model: tau, offset, amplitude, start_time_for_fit</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.paramsMixed</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): 0: Quiet, 1: Active, 2: Pooled; nParams (8): parameters for the mixed model: tau1, offset1, tau2, offset2, amplitude, switch time, y_start_fit, start_time_for_fit</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.paramsFlat</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): 0: Quiet, 1: Active, 2: Pooled; nParams (2): parameters for the flat model:average firing rate, start_time_for_fit</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.mseAdapt</t>
+  </si>
+  <si>
+    <t>nUnits, nStates</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): Dimension corresponding to the states (Quiet, Active, Pooled). Each entry contains the mean squared error (MSE) value of the adaptation model for the respective state.</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.mseSens</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): Dimension corresponding to the states (Quiet, Active, Pooled). Each entry contains the MSE value of the sensitisation model for the respective state.</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.mseMixed</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): Dimension corresponding to the states (Quiet, Active, Pooled). Each entry contains the MSE value of the mixed model for the respective state.</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.mseFlat</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): Dimension corresponding to the states (Quiet, Active, Pooled). Each entry contains the MSE value of the flat model for the respective state.</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.AdaptIndex</t>
+  </si>
+  <si>
+    <t>nUnits, nStates, 2</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; nStates (3): 0: Quiet, 1: Active, 2: Pooled (both Quiet and Active); 2: Two columns representing AI values: if the best model is "Mixed," this column contains the second AI value for the second part of the model. Otherwise, this column is NaN.</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.BestModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>nUnits, 4</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID; 4 columns: quiet, active, pooled, state_separation. Columns 1-3: best model for each state. Possible strings: Adaptation, Sensitisation, Mixed, Flat. Column 4: state separation. Possible strings: pooled, separate</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.isOscillating</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): boolean indicating whether the neuron is oscillating or not</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.f1Values</t>
+  </si>
+  <si>
+    <t>gratingsPsthExpFit.timeShifts</t>
+  </si>
+  <si>
+    <t>nTrials: number of trials in a given experiment with the value of time shift for that trial in seconds</t>
+  </si>
+  <si>
+    <t>nUnits, nStimID</t>
+  </si>
+  <si>
+    <t>nUnits(# neurons): neuron ID;  nStimID: F1 value per direction</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1094,13 +1193,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1137,6 +1245,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1457,21 +1571,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C25F9AC-6BF1-4115-A50A-42D1CDBFF915}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1513,11 +1627,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1531,7 +1645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>283</v>
       </c>
@@ -1545,7 +1659,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1559,7 +1673,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1573,7 +1687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1701,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1601,7 +1715,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>290</v>
       </c>
@@ -1629,7 +1743,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
@@ -1643,7 +1757,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>205</v>
       </c>
@@ -1657,7 +1771,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>303</v>
       </c>
@@ -1671,7 +1785,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>305</v>
       </c>
@@ -1685,7 +1799,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
@@ -1699,7 +1813,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>308</v>
       </c>
@@ -1713,7 +1827,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>311</v>
       </c>
@@ -1727,7 +1841,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>313</v>
       </c>
@@ -1741,20 +1855,20 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1768,7 +1882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1790,20 +1904,20 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1831,7 +1945,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -1845,7 +1959,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -1859,7 +1973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
@@ -1873,7 +1987,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -1887,7 +2001,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -1901,7 +2015,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -1915,13 +2029,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1935,7 +2049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1949,7 +2063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1963,7 +2077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1977,7 +2091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
@@ -1991,10 +2105,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2008,7 +2122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2022,7 +2136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2036,7 +2150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -2050,7 +2164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2064,7 +2178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2078,7 +2192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,7 +2206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2106,7 +2220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,7 +2234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2134,7 +2248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -2148,7 +2262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,7 +2276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2191,16 +2305,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>212</v>
       </c>
@@ -2228,7 +2342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -2242,11 +2356,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2260,7 +2374,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2274,7 +2388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>274</v>
       </c>
@@ -2288,7 +2402,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>240</v>
       </c>
@@ -2302,11 +2416,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>286</v>
       </c>
@@ -2320,7 +2434,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>288</v>
       </c>
@@ -2334,7 +2448,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -2362,16 +2476,16 @@
       <selection pane="bottomLeft" activeCell="B53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="110.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="157.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="157.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -2399,7 +2513,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>202</v>
       </c>
@@ -2413,7 +2527,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>213</v>
       </c>
@@ -2427,7 +2541,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -2441,7 +2555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -2455,7 +2569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -2469,7 +2583,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>278</v>
       </c>
@@ -2483,7 +2597,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>280</v>
       </c>
@@ -2497,7 +2611,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>216</v>
       </c>
@@ -2511,7 +2625,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>214</v>
       </c>
@@ -2525,7 +2639,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>214</v>
       </c>
@@ -2539,7 +2653,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -2553,7 +2667,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
@@ -2567,7 +2681,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>219</v>
       </c>
@@ -2581,7 +2695,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>220</v>
       </c>
@@ -2595,7 +2709,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>221</v>
       </c>
@@ -2609,7 +2723,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>222</v>
       </c>
@@ -2623,7 +2737,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>223</v>
       </c>
@@ -2637,7 +2751,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>203</v>
       </c>
@@ -2651,7 +2765,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -2665,7 +2779,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>191</v>
       </c>
@@ -2679,7 +2793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -2693,7 +2807,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -2707,7 +2821,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>196</v>
       </c>
@@ -2721,7 +2835,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>276</v>
       </c>
@@ -2735,7 +2849,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>224</v>
       </c>
@@ -2749,7 +2863,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>243</v>
       </c>
@@ -2763,7 +2877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -2777,7 +2891,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>245</v>
       </c>
@@ -2791,7 +2905,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>246</v>
       </c>
@@ -2805,7 +2919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>249</v>
       </c>
@@ -2819,7 +2933,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
@@ -2833,7 +2947,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>247</v>
       </c>
@@ -2847,7 +2961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>248</v>
       </c>
@@ -2861,7 +2975,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>253</v>
       </c>
@@ -2875,7 +2989,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>254</v>
       </c>
@@ -2889,7 +3003,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>255</v>
       </c>
@@ -2903,7 +3017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>257</v>
       </c>
@@ -2917,7 +3031,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>293</v>
       </c>
@@ -2931,7 +3045,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>294</v>
       </c>
@@ -2945,7 +3059,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>295</v>
       </c>
@@ -2959,7 +3073,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>299</v>
       </c>
@@ -2973,7 +3087,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>298</v>
       </c>
@@ -2994,23 +3108,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3024,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -3038,7 +3152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -3052,13 +3166,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -3072,7 +3186,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -3086,7 +3200,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3100,7 +3214,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -3114,7 +3228,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -3128,7 +3242,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -3142,13 +3256,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -3162,7 +3276,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -3174,7 +3288,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3186,7 +3300,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>141</v>
       </c>
@@ -3198,7 +3312,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -3209,7 +3323,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -3221,7 +3335,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -3235,7 +3349,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
@@ -3246,7 +3360,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -3257,7 +3371,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
@@ -3268,7 +3382,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -3279,7 +3393,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
@@ -3290,7 +3404,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -3304,7 +3418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>151</v>
       </c>
@@ -3315,7 +3429,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>152</v>
       </c>
@@ -3326,7 +3440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>153</v>
       </c>
@@ -3337,7 +3451,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
@@ -3348,7 +3462,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>155</v>
       </c>
@@ -3360,7 +3474,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -3374,7 +3488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -3388,7 +3502,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -3402,7 +3516,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>258</v>
       </c>
@@ -3416,7 +3530,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -3430,7 +3544,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>161</v>
       </c>
@@ -3444,7 +3558,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -3458,7 +3572,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
@@ -3472,7 +3586,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -3486,7 +3600,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>264</v>
       </c>
@@ -3500,7 +3614,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>265</v>
       </c>
@@ -3514,7 +3628,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>156</v>
       </c>
@@ -3528,7 +3642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -3542,7 +3656,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>200</v>
       </c>
@@ -3556,7 +3670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>157</v>
       </c>
@@ -3570,7 +3684,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>158</v>
       </c>
@@ -3584,7 +3698,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>159</v>
       </c>
@@ -3598,7 +3712,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -3612,7 +3726,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>271</v>
       </c>
@@ -3624,6 +3738,188 @@
       </c>
       <c r="D55" s="1" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/dataDefinitions.xlsx
+++ b/dataDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspaces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA141186-DC26-4564-B86A-41053D9688FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4430D0-E227-4164-8957-C66690F8EE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
+    <workbookView xWindow="-1958" yWindow="-16297" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{3F3756E1-F16D-4C67-A02C-119F78A23B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Imaging" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="351">
   <si>
     <t>File name</t>
   </si>
@@ -1084,6 +1084,15 @@
   </si>
   <si>
     <t>nUnits(# neurons): neuron ID;  nStimID: F1 value per direction</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Channels along probe coinciding with (1) the top of SC, and (2) the border between SGS and SO</t>
+  </si>
+  <si>
+    <t>recording.scChannels</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1217,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1248,9 +1257,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,16 +1582,16 @@
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="20.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1627,11 +1633,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>283</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>290</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>179</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>205</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>303</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>305</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>307</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>308</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>311</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>313</v>
       </c>
@@ -1855,20 +1861,20 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1901,23 +1907,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1A0A7-F272-47D7-84D8-7D69F6A764BE}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="20.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -2029,13 +2035,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
@@ -2105,10 +2111,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2288,6 +2294,20 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2305,16 +2325,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="20.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>212</v>
       </c>
@@ -2342,7 +2362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -2356,11 +2376,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2374,7 +2394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2388,7 +2408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>274</v>
       </c>
@@ -2402,7 +2422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>240</v>
       </c>
@@ -2416,11 +2436,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>286</v>
       </c>
@@ -2434,7 +2454,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>288</v>
       </c>
@@ -2448,7 +2468,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -2476,16 +2496,16 @@
       <selection pane="bottomLeft" activeCell="B53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.86328125" style="1" customWidth="1"/>
     <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="110.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="157.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="157.46484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -2513,7 +2533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>202</v>
       </c>
@@ -2527,7 +2547,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>213</v>
       </c>
@@ -2541,7 +2561,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -2555,7 +2575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -2569,7 +2589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -2583,7 +2603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>278</v>
       </c>
@@ -2597,7 +2617,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>280</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>216</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>214</v>
       </c>
@@ -2639,7 +2659,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>214</v>
       </c>
@@ -2653,7 +2673,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -2667,7 +2687,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
@@ -2681,7 +2701,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>219</v>
       </c>
@@ -2695,7 +2715,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>220</v>
       </c>
@@ -2709,7 +2729,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>221</v>
       </c>
@@ -2723,7 +2743,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>222</v>
       </c>
@@ -2737,7 +2757,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>223</v>
       </c>
@@ -2751,7 +2771,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>203</v>
       </c>
@@ -2765,7 +2785,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -2779,7 +2799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>191</v>
       </c>
@@ -2793,7 +2813,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -2807,7 +2827,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -2821,7 +2841,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>196</v>
       </c>
@@ -2835,7 +2855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>276</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>224</v>
       </c>
@@ -2863,7 +2883,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>243</v>
       </c>
@@ -2877,7 +2897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>244</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>245</v>
       </c>
@@ -2905,7 +2925,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>246</v>
       </c>
@@ -2919,7 +2939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>249</v>
       </c>
@@ -2933,7 +2953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
@@ -2947,7 +2967,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>247</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>248</v>
       </c>
@@ -2975,7 +2995,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>253</v>
       </c>
@@ -2989,7 +3009,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>254</v>
       </c>
@@ -3003,7 +3023,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>255</v>
       </c>
@@ -3017,7 +3037,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>257</v>
       </c>
@@ -3031,7 +3051,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>293</v>
       </c>
@@ -3045,7 +3065,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>294</v>
       </c>
@@ -3059,7 +3079,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>295</v>
       </c>
@@ -3073,7 +3093,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>299</v>
       </c>
@@ -3087,7 +3107,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>298</v>
       </c>
@@ -3110,21 +3130,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE84D7-1D35-455E-9EAE-38426D5ED717}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="20.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -3152,7 +3172,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -3166,13 +3186,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -3186,7 +3206,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -3200,7 +3220,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3214,7 +3234,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -3228,7 +3248,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -3242,7 +3262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -3256,13 +3276,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -3276,7 +3296,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -3288,7 +3308,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3300,7 +3320,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>141</v>
       </c>
@@ -3312,7 +3332,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -3323,7 +3343,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -3335,7 +3355,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -3349,7 +3369,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
@@ -3360,7 +3380,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -3371,7 +3391,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
@@ -3382,7 +3402,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -3393,7 +3413,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
@@ -3404,7 +3424,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -3418,7 +3438,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>151</v>
       </c>
@@ -3429,7 +3449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>152</v>
       </c>
@@ -3440,7 +3460,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>153</v>
       </c>
@@ -3451,7 +3471,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
@@ -3462,7 +3482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>155</v>
       </c>
@@ -3474,7 +3494,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -3488,7 +3508,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -3502,7 +3522,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -3516,7 +3536,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>258</v>
       </c>
@@ -3530,7 +3550,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>161</v>
       </c>
@@ -3558,7 +3578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
@@ -3572,7 +3592,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
@@ -3586,7 +3606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -3600,7 +3620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>264</v>
       </c>
@@ -3614,7 +3634,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>265</v>
       </c>
@@ -3628,7 +3648,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>156</v>
       </c>
@@ -3642,7 +3662,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -3656,7 +3676,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>200</v>
       </c>
@@ -3670,7 +3690,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>157</v>
       </c>
@@ -3684,7 +3704,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>158</v>
       </c>
@@ -3698,7 +3718,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>159</v>
       </c>
@@ -3712,7 +3732,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>271</v>
       </c>
@@ -3740,7 +3760,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="14" t="s">
         <v>315</v>
       </c>
@@ -3754,7 +3774,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>318</v>
       </c>
@@ -3768,7 +3788,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>320</v>
       </c>
@@ -3782,7 +3802,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>322</v>
       </c>
@@ -3796,7 +3816,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>324</v>
       </c>
@@ -3810,7 +3830,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>327</v>
       </c>
@@ -3824,7 +3844,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>329</v>
       </c>
@@ -3838,7 +3858,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>331</v>
       </c>
@@ -3852,7 +3872,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>333</v>
       </c>
@@ -3866,7 +3886,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>336</v>
       </c>
@@ -3880,36 +3900,36 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B69" s="1" t="s">
